--- a/src/main/java/CorrelationDocumentation/MetricCorrelation/metric_5_6/commons-configuration/knots.xlsx
+++ b/src/main/java/CorrelationDocumentation/MetricCorrelation/metric_5_6/commons-configuration/knots.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MApComSci\Winter 2020\SOEN 6611 Software Measurement\Project\Knots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manan\Desktop\SOEN6611\src\main\java\CorrelationDocumentation\MetricCorrelation\metric_5_6\commons-configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69C4AC8-28D5-4DAF-8FF4-2C33BA45A345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C74F366-B957-420C-B375-8045E4E78315}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2B22BFB3-7DD2-4975-B593-A16C1A32B8CD}"/>
+    <workbookView xWindow="2760" yWindow="1188" windowWidth="17280" windowHeight="8964" xr2:uid="{2B22BFB3-7DD2-4975-B593-A16C1A32B8CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -410,66 +407,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FF63F9-4369-41AD-8955-D6E812CA054B}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="B4" s="3">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="B5" s="3">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="B6" s="3">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="B8" s="3">
         <v>1118</v>
       </c>
     </row>
